--- a/ch4-spreadsheets/res/REVIEW.xlsx
+++ b/ch4-spreadsheets/res/REVIEW.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\libraries\Documents\GitHub\computer-apps-primer\ch4-spreadsheets\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\computer-apps-primer\ch4-spreadsheets\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Review Exercises</t>
   </si>
@@ -109,6 +109,71 @@
   </si>
   <si>
     <t>Calculate Some Statistics</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Make a Chart</t>
+  </si>
+  <si>
+    <t>Using the data from the heating bill above, create a simple line chart showing
+the heating bill over time throughout the year. Style it however you wish, and 
+then make it fit in the outline (hint, use the alt-key to make it snap to the grid)</t>
+  </si>
+  <si>
+    <t>Name:</t>
   </si>
   <si>
     <r>
@@ -117,7 +182,6 @@
     <r>
       <rPr>
         <b/>
-        <i/>
         <sz val="11"/>
         <color theme="4" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
@@ -127,80 +191,12 @@
       <t>function</t>
     </r>
   </si>
-  <si>
-    <t>Heat</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>AVERAGE</t>
-  </si>
-  <si>
-    <t>MEAN</t>
-  </si>
-  <si>
-    <t>MEDIAN</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>Make a Chart</t>
-  </si>
-  <si>
-    <t>Using the data from the heating bill above, create a simple line chart showing
-the heating bill over time throughout the year. Style it however you wish, and 
-then make it fit in the outline (hint, use the alt-key to make it snap to the grid)</t>
-  </si>
-  <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>Mariah</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +235,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,25 +310,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <i/>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -540,49 +587,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="5" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="5" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="7"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
@@ -605,276 +653,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$27:$C$29</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Calculate Some Statistics</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Look over these monthly bills for a utility. Perform each requested calculation using a function</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Heat</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$30:$B$45</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>January</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>February</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>June</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>August</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>September</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>October</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>November</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>December</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>TOTAL</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>AVERAGE</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>MEAN</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>MEDIAN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$30:$C$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1436</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>119.66666666666667</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>119.66666666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BEC8-4EE5-B15D-84B932C3168A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="99045376"/>
-        <c:axId val="99046912"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="99045376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99046912"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="99046912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99045376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1177,532 +955,483 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+      <selection activeCell="C42" sqref="C42:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
-        <v>60</v>
-      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6">
-        <f>C6*60</f>
-        <v>3600</v>
-      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
-        <f>C7*24</f>
-        <v>86400</v>
-      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6">
-        <f>C8*365</f>
-        <v>31536000</v>
-      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6">
-        <f>C9*10</f>
-        <v>315360000</v>
-      </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="13">
         <v>1.83</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="14">
         <v>4</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="14">
         <v>7.99</v>
       </c>
-      <c r="E16" s="8">
-        <f>C16+D16</f>
-        <v>11.99</v>
-      </c>
-      <c r="G16" s="9" t="s">
+      <c r="E16" s="14"/>
+      <c r="G16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="13">
         <v>3.26</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="13">
         <v>4</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="13">
         <v>3.99</v>
       </c>
-      <c r="E17" s="9">
-        <f>C17+D17</f>
-        <v>7.99</v>
-      </c>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="13">
         <v>1</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="13">
         <v>4.5</v>
       </c>
-      <c r="E18" s="9">
-        <f>C18+D18</f>
-        <v>5.5</v>
-      </c>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="13">
         <v>1</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="13">
         <v>3.75</v>
       </c>
-      <c r="E19" s="9">
-        <f>C19+D19</f>
-        <v>4.75</v>
-      </c>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="13">
         <v>3</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="13">
         <v>4.99</v>
       </c>
-      <c r="E20" s="9">
-        <f>C20+D20</f>
-        <v>7.99</v>
-      </c>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="9">
-        <f>E16+E17+E18+E19+E20</f>
-        <v>38.22</v>
-      </c>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="9">
-        <v>1.83</v>
-      </c>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="9">
-        <v>3.26</v>
-      </c>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="10">
-        <f>E21+E22+E23</f>
-        <v>43.309999999999995</v>
-      </c>
+      <c r="E24" s="15"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
-      <c r="C29" s="13" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
+      <c r="C30" s="19">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="15">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
+      <c r="C31" s="19">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="15">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
+      <c r="C32" s="19">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="15">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
+      <c r="C33" s="19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="15">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="14" t="s">
+      <c r="C34" s="19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="15">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="14" t="s">
+      <c r="C35" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
+      <c r="C36" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C37" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="14" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C38" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="14" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="14" t="s">
+      <c r="C39" s="19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="15">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
+      <c r="C40" s="19">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="15">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
+      <c r="C41" s="21">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="17">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="s">
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="6">
-        <f>C30+C31+C32+C33+C34+C35+C36+C37+C39+C38+C41+C40</f>
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="14" t="s">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="6">
-        <f>AVERAGE(C42/12)</f>
-        <v>119.66666666666667</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="6">
-        <f>AVERAGE(C42/12)</f>
-        <v>119.66666666666667</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="6">
-        <f>MEDIAN(C30,C31,C32,C33,C34,C35,C36,C37,C38,C39,C40,C41)</f>
-        <v>120</v>
-      </c>
+      <c r="C45" s="4"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="s">
+    </row>
+    <row r="49" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="20"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="22"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="26"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="25"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="29"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="25"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="25"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="29"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="23"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="25"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="29"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="25"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="29"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="23"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="25"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="29"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="23"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="25"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="29"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="25"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="29"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="25"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="29"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="25"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="29"/>
     </row>
     <row r="61" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="26"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="28"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1711,6 +1440,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>